--- a/LCDataDictionary.xlsx
+++ b/LCDataDictionary.xlsx
@@ -5,21 +5,22 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lending_club\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lending-club-credit-risk-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EDCCFE-7B43-4283-BA78-5C077085EC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB7868-3EFC-4073-888E-C1AF238E78C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
-    <sheet name="Chinese" sheetId="4" r:id="rId2"/>
+    <sheet name="Example" sheetId="5" r:id="rId2"/>
+    <sheet name="Chinese" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$119</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="494">
   <si>
     <t>id</t>
   </si>
@@ -210,9 +211,6 @@
     <t>The past-due amount owed for the accounts on which the borrower is now delinquent.</t>
   </si>
   <si>
-    <t>Loan description provided by the borrower</t>
-  </si>
-  <si>
     <t xml:space="preserve">Employment length in years. Possible values are between 0 and 10 where 0 means less than one year and 10 means ten or more years. </t>
   </si>
   <si>
@@ -231,9 +229,6 @@
     <t>The listed amount of the loan applied for by the borrower. If at some point in time, the credit department reduces the loan amount, then it will be reflected in this value.</t>
   </si>
   <si>
-    <t>A unique LC assigned Id for the borrower member.</t>
-  </si>
-  <si>
     <t>Number of mortgage accounts.</t>
   </si>
   <si>
@@ -540,10 +535,6 @@
     <t xml:space="preserve">A category provided by the borrower for the loan request. </t>
   </si>
   <si>
-    <t>publicly available policy_code=1
-new products not publicly available policy_code=2</t>
-  </si>
-  <si>
     <t>The state provided by the borrower in the loan application</t>
   </si>
   <si>
@@ -811,12 +802,6 @@
     <t xml:space="preserve"> Number of collections within last 12 months excluding medical collections at time of application for the secondary applicant</t>
   </si>
   <si>
-    <t xml:space="preserve">sec_app_mths_since_last_major_derog </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Months since most recent 90-day or worse rating at time of application for the secondary applicant</t>
-  </si>
-  <si>
     <t>open_act_il</t>
   </si>
   <si>
@@ -826,39 +811,9 @@
     <t>Flags whether or not the borrower, who has charged-off, is working with a debt-settlement company.</t>
   </si>
   <si>
-    <r>
-      <t>The most recent date that the Debt_Settlement_Flag has been set</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  </t>
-    </r>
-  </si>
-  <si>
-    <t>The status of the borrower’s settlement plan. Possible values are: COMPLETE, ACTIVE, BROKEN, CANCELLED, DENIED, DRAFT</t>
-  </si>
-  <si>
     <t>settlement_date</t>
   </si>
   <si>
-    <t>The date that the borrower agrees to the settlement plan</t>
-  </si>
-  <si>
-    <t>The loan amount that the borrower has agreed to settle for</t>
-  </si>
-  <si>
-    <t>The settlement amount as a percentage of the payoff balance amount on the loan</t>
-  </si>
-  <si>
-    <t>The number of months that the borrower will be on the settlement plan</t>
-  </si>
-  <si>
     <t>debt_settlement_flag</t>
   </si>
   <si>
@@ -910,9 +865,6 @@
     <t>hardship_last_payment_amount</t>
   </si>
   <si>
-    <t>disbursement_method</t>
-  </si>
-  <si>
     <t>settlement_status</t>
   </si>
   <si>
@@ -968,9 +920,6 @@
   </si>
   <si>
     <t>The last payment amount as of the hardship plan start date</t>
-  </si>
-  <si>
-    <t>The method by which the borrower receives their loan. Possible values are: CASH, DIRECT_PAY</t>
   </si>
   <si>
     <t>当前逾期的账户数量</t>
@@ -1461,70 +1410,146 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>cat</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>collections_12_mths_ex_med</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>debt_settlement_flag</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>delinq_2yrs</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>sec_app_collections_12_mths_ex_med</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>sec_app_inq_last_6mths</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>disbursement_method</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>dtype</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>missingvalue</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>groupby subgrade?</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36 months</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>Registered Nurse</t>
+  </si>
+  <si>
+    <t>&lt; 1 year</t>
+  </si>
+  <si>
+    <t>RENT</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>https://lendingclub.com/browse/loanDetail.action?loan_id=151269290</t>
+  </si>
+  <si>
+    <t>moving</t>
+  </si>
+  <si>
+    <t>Moving and relocation</t>
+  </si>
+  <si>
+    <t>338xx</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Joint App</t>
+  </si>
+  <si>
+    <t>verification_status_joint</t>
+  </si>
+  <si>
+    <t>sec_app_inq_last_6mths</t>
+  </si>
+  <si>
+    <t>sec_app_collections_12_mths_ex_med</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>CVD19SKIP</t>
+  </si>
+  <si>
+    <t>UNEMPLOYED</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>publicly available policy_code=1; new products not publicly available policy_code=2</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1680,13 +1705,6 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2120,7 +2138,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2138,6 +2156,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="92">
@@ -2537,11 +2561,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2554,7 +2578,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>48</v>
@@ -2562,7 +2586,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
@@ -2570,7 +2594,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>50</v>
@@ -2581,15 +2605,15 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2597,36 +2621,36 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>51</v>
@@ -2634,7 +2658,7 @@
     </row>
     <row r="11" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>52</v>
@@ -2642,190 +2666,189 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>217</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>174</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>304</v>
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>263</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>265</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2833,244 +2856,244 @@
         <v>269</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>295</v>
+        <v>11</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>270</v>
+        <v>196</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>206</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>210</v>
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>212</v>
+        <v>6</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>172</v>
+        <v>202</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>218</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>62</v>
+        <v>102</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>127</v>
@@ -3078,111 +3101,111 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>64</v>
+        <v>220</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>65</v>
+        <v>223</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>141</v>
@@ -3190,611 +3213,1694 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>139</v>
+        <v>29</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>69</v>
+        <v>190</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>194</v>
+        <v>35</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>202</v>
+        <v>36</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>281</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>301</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>83</v>
+        <v>225</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>84</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>297</v>
+        <v>30</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>145</v>
+        <v>31</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>164</v>
+        <v>229</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>160</v>
+        <v>248</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>72</v>
+        <v>250</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>73</v>
+        <v>233</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>256</v>
+        <v>9</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>245</v>
+        <v>5</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>248</v>
+        <v>19</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>286</v>
+        <v>104</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>263</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>265</v>
+        <v>33</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>261</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>74</v>
+        <v>227</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>149</v>
+        <v>38</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>148</v>
+        <v>40</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>147</v>
+        <v>41</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>198</v>
+        <v>16</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>79</v>
+        <v>213</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="3" t="s">
-        <v>155</v>
+      <c r="B144" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B129" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B154">
-    <sortCondition ref="A1:A154"/>
+  <autoFilter ref="A1:B119" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B144">
+    <sortCondition ref="A1:A144"/>
   </sortState>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB34F3D4-BB48-42D9-9FFC-6C334088F04E}">
+  <dimension ref="A1:E142"/>
+  <sheetViews>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6">
+        <v>56160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="6">
+        <v>91520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="6">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6">
+        <v>24.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="6">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="9">
+        <v>39022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="6">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6">
+        <v>5000</v>
+      </c>
+      <c r="D25">
+        <f>SUM(B94,B136)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="9">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" s="6">
+        <v>167.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" s="6">
+        <v>3828.97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="6">
+        <v>151269290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="6">
+        <v>167.03</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="9">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="9">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="6">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="6">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="9">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" s="6">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="9">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B88" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" s="6">
+        <v>78.73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" s="6">
+        <v>3809.29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="6">
+        <v>3809.29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="6">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B98" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" s="6">
+        <v>9372</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B106" s="6">
+        <v>12337</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="8">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B109" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B110" s="9">
+        <v>39022</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B111" s="6">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B112" s="6">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B113" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B115" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B116" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B117" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B118" s="6">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B120" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B124" s="6">
+        <v>88006</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" s="6">
+        <v>103707</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" s="6">
+        <v>88006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B128" s="6">
+        <v>78634</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129" s="6">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B130" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" s="6">
+        <v>86207</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B132" s="6">
+        <v>1666.86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B133" s="6">
+        <v>1666.86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B134" s="6">
+        <v>476.15</v>
+      </c>
+      <c r="E134">
+        <f>SUM(B134,B136)</f>
+        <v>1666.8600000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" s="6">
+        <v>1190.71</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B137" s="6">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B142">
+    <sortCondition ref="A1:A142"/>
+  </sortState>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C23892-470F-4020-A018-E59036A74DF6}">
   <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3806,13 +4912,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B1" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>48</v>
@@ -3820,1673 +4926,1673 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E152">
     <sortCondition ref="C1:C152"/>
   </sortState>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>